--- a/data/trans_orig/P5704-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P5704-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>358891</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>332543</v>
+        <v>333515</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>384711</v>
+        <v>386830</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5171248536234447</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4791609730392391</v>
+        <v>0.4805609213915625</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5543287200157818</v>
+        <v>0.557382087836072</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>337</v>
@@ -765,19 +765,19 @@
         <v>329137</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>301457</v>
+        <v>303321</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>355761</v>
+        <v>355361</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4781524892283963</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4379404374561728</v>
+        <v>0.4406482102283651</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5168309400144326</v>
+        <v>0.5162495314570349</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>686</v>
@@ -786,19 +786,19 @@
         <v>688028</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>653321</v>
+        <v>650507</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>726611</v>
+        <v>724057</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4977184718500539</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4726116307317645</v>
+        <v>0.4705764181628523</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5256293667169476</v>
+        <v>0.5237822629758935</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>226064</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>202544</v>
+        <v>201127</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>253215</v>
+        <v>250902</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3257354256675584</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2918456394976835</v>
+        <v>0.2898034289685203</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3648563317184754</v>
+        <v>0.361524476633884</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>225</v>
@@ -836,19 +836,19 @@
         <v>225519</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>202000</v>
+        <v>203766</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>251041</v>
+        <v>252335</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.327621826529208</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2934543302738635</v>
+        <v>0.2960198203991036</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3646992636111014</v>
+        <v>0.3665792121490042</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>449</v>
@@ -857,19 +857,19 @@
         <v>451583</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>415560</v>
+        <v>416485</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>483786</v>
+        <v>484991</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3266747634744142</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3006154294781558</v>
+        <v>0.3012848788754601</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3499706487654856</v>
+        <v>0.3508420358548568</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>93340</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>77279</v>
+        <v>76049</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>113496</v>
+        <v>111552</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1344939051880124</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1113504162472968</v>
+        <v>0.1095787544416403</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1635360533984814</v>
+        <v>0.1607350051996636</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>94</v>
@@ -907,19 +907,19 @@
         <v>93061</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>76016</v>
+        <v>75045</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>111846</v>
+        <v>110771</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.135194461030511</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1104322767931007</v>
+        <v>0.1090214662280728</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1624846440656776</v>
+        <v>0.1609222083308449</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>189</v>
@@ -928,19 +928,19 @@
         <v>186402</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>162325</v>
+        <v>162785</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>212213</v>
+        <v>214484</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.134842748640139</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1174256557649361</v>
+        <v>0.1177586162101551</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1535148963164618</v>
+        <v>0.1551573609626063</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>14753</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8375</v>
+        <v>8281</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24029</v>
+        <v>24102</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02125727847337227</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0120670698237358</v>
+        <v>0.01193189149903658</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03462263218666575</v>
+        <v>0.03472812682198184</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -978,19 +978,19 @@
         <v>35063</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24590</v>
+        <v>24804</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48889</v>
+        <v>47834</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05093701385189871</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03572269551550378</v>
+        <v>0.03603337033331605</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07102405759879117</v>
+        <v>0.06949122179638767</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>49</v>
@@ -999,19 +999,19 @@
         <v>49815</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38201</v>
+        <v>36245</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65648</v>
+        <v>65488</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03603637347131596</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02763463197511353</v>
+        <v>0.0262196598055796</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04748964328355595</v>
+        <v>0.04737360839215963</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4852</v>
+        <v>5000</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.001388537047612242</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.006991669493364158</v>
+        <v>0.007205187076873803</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -1049,19 +1049,19 @@
         <v>5572</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1983</v>
+        <v>1944</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12672</v>
+        <v>12659</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.008094209359986016</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002880816727760637</v>
+        <v>0.002824581953874731</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01840923813905071</v>
+        <v>0.0183897775012356</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1070,19 +1070,19 @@
         <v>6535</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2564</v>
+        <v>2536</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14025</v>
+        <v>14396</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004727642564077028</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001855116363205537</v>
+        <v>0.001834255472129683</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01014601681771832</v>
+        <v>0.01041421640429277</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>560221</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>529026</v>
+        <v>529817</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>592619</v>
+        <v>591802</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5824718074843352</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.550036994976178</v>
+        <v>0.5508596477511852</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6161564618465278</v>
+        <v>0.6153069463304266</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>524</v>
@@ -1195,19 +1195,19 @@
         <v>554970</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>523493</v>
+        <v>522580</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>584327</v>
+        <v>587784</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5730837779789877</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5405786212770439</v>
+        <v>0.5396366974512309</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6033981982736905</v>
+        <v>0.6069688019313304</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1043</v>
@@ -1216,19 +1216,19 @@
         <v>1115192</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1071921</v>
+        <v>1070345</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1159474</v>
+        <v>1160279</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5777617591606959</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5553441216287236</v>
+        <v>0.5545274570941536</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6007035548880953</v>
+        <v>0.6011207412445799</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>267898</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>240333</v>
+        <v>240037</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>298245</v>
+        <v>296788</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2785380935633037</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2498782177044023</v>
+        <v>0.249570998272222</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3100907796633005</v>
+        <v>0.3085757993039732</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>257</v>
@@ -1266,19 +1266,19 @@
         <v>273414</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>245886</v>
+        <v>244313</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>300182</v>
+        <v>299735</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2823374916609321</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2539117427014784</v>
+        <v>0.252287390997022</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.309979221031418</v>
+        <v>0.3095174192833768</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>510</v>
@@ -1287,19 +1287,19 @@
         <v>541312</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>498638</v>
+        <v>503938</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>582189</v>
+        <v>580102</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2804442815051268</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2583356039795637</v>
+        <v>0.2610815965440381</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3016219854126827</v>
+        <v>0.3005408053923651</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>115499</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>95174</v>
+        <v>96809</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>135544</v>
+        <v>140015</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1200862701271704</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09895402746498737</v>
+        <v>0.10065366584869</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1409273849214129</v>
+        <v>0.1455760319894268</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>105</v>
@@ -1337,19 +1337,19 @@
         <v>115466</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>95898</v>
+        <v>96469</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>137295</v>
+        <v>138009</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1192344219241323</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09902774295823585</v>
+        <v>0.09961782267795558</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1417763566829727</v>
+        <v>0.142513637401854</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>212</v>
@@ -1358,19 +1358,19 @@
         <v>230965</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>203013</v>
+        <v>203014</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>262580</v>
+        <v>261525</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1196588911763023</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.105177748662963</v>
+        <v>0.1051781448458553</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1360381940474518</v>
+        <v>0.1354915017259334</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>13433</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7125</v>
+        <v>7117</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22271</v>
+        <v>22498</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01396622996311251</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007407879942292801</v>
+        <v>0.007399669854130425</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02315562504687236</v>
+        <v>0.02339196690523175</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1408,19 +1408,19 @@
         <v>21233</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13135</v>
+        <v>12791</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33150</v>
+        <v>32718</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02192590551408429</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01356335290956719</v>
+        <v>0.01320852953392737</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03423221168802913</v>
+        <v>0.03378565396829447</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -1429,19 +1429,19 @@
         <v>34666</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23399</v>
+        <v>24248</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46897</v>
+        <v>49337</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01795966186106427</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01212248132988902</v>
+        <v>0.01256255646053699</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02429653958838722</v>
+        <v>0.0255606091554012</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>4749</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1747</v>
+        <v>1832</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13263</v>
+        <v>12372</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004937598862078015</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001816319909252964</v>
+        <v>0.00190476809801755</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01378983335344571</v>
+        <v>0.01286382900772737</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1482,16 +1482,16 @@
         <v>1047</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8856</v>
+        <v>9798</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003418402921863641</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001081471198356938</v>
+        <v>0.001081488017062329</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009145173182274846</v>
+        <v>0.01011814210712154</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -1500,19 +1500,19 @@
         <v>8059</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3285</v>
+        <v>3133</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17461</v>
+        <v>16150</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004175406296810676</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001701841141934738</v>
+        <v>0.001623118620999706</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009046169647156788</v>
+        <v>0.008366881661610537</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>439878</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>413472</v>
+        <v>411821</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>463588</v>
+        <v>464140</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6483007512065125</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.609383522064176</v>
+        <v>0.606950642108101</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6832451035455678</v>
+        <v>0.684058209200229</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>437</v>
@@ -1625,19 +1625,19 @@
         <v>429871</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>401610</v>
+        <v>407063</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>454778</v>
+        <v>454378</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6286130117070525</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.587285080125604</v>
+        <v>0.5952597290155803</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6650347498720413</v>
+        <v>0.6644501341389801</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>848</v>
@@ -1646,19 +1646,19 @@
         <v>869749</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>833767</v>
+        <v>831471</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>902316</v>
+        <v>902224</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6384183533925178</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6120062711482831</v>
+        <v>0.6103209704217925</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6623234894137595</v>
+        <v>0.662255753699066</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>151576</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>130933</v>
+        <v>130366</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>175677</v>
+        <v>175634</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2233951454565111</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1929718452331169</v>
+        <v>0.192135794133159</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2589168781603242</v>
+        <v>0.2588528693482923</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>161</v>
@@ -1696,19 +1696,19 @@
         <v>153132</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>133856</v>
+        <v>133371</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>175652</v>
+        <v>175957</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2239290593061732</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1957417203025065</v>
+        <v>0.1950315691882803</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2568614812865466</v>
+        <v>0.2573069601952233</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>310</v>
@@ -1717,19 +1717,19 @@
         <v>304707</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>275579</v>
+        <v>272826</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>336551</v>
+        <v>334492</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2236631472279134</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2022824035754491</v>
+        <v>0.2002614848131739</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.247037131910394</v>
+        <v>0.2455255166495038</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>64675</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>51759</v>
+        <v>48740</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>81346</v>
+        <v>81262</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09531941735293807</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07628393331962308</v>
+        <v>0.0718333550985113</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1198897982850951</v>
+        <v>0.1197658118054208</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>74</v>
@@ -1767,19 +1767,19 @@
         <v>75609</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>59522</v>
+        <v>61316</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>93279</v>
+        <v>93890</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1105647321086468</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08704015123449649</v>
+        <v>0.0896639595292817</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1364042573895851</v>
+        <v>0.1372977544136706</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>135</v>
@@ -1788,19 +1788,19 @@
         <v>140284</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>120429</v>
+        <v>120045</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>166862</v>
+        <v>165910</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1029719091598115</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08839767040522471</v>
+        <v>0.08811600313771932</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1224806414944341</v>
+        <v>0.1217822578895657</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>19749</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11910</v>
+        <v>12025</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30164</v>
+        <v>30470</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02910687807046561</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01755347269636694</v>
+        <v>0.01772274503611641</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04445683375843177</v>
+        <v>0.04490718150469991</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -1838,19 +1838,19 @@
         <v>24155</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15814</v>
+        <v>15085</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36441</v>
+        <v>35425</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03532319929470312</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02312486251926376</v>
+        <v>0.02205884918788409</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05328887458798268</v>
+        <v>0.05180283964891778</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>41</v>
@@ -1859,19 +1859,19 @@
         <v>43905</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32919</v>
+        <v>31579</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>60036</v>
+        <v>60015</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03222720375738249</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02416319165523667</v>
+        <v>0.02317993231632217</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04406778539238008</v>
+        <v>0.04405220003403765</v>
       </c>
     </row>
     <row r="20">
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8189</v>
+        <v>9152</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003877807913572717</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01206838938536115</v>
+        <v>0.01348805403627183</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5911</v>
+        <v>5422</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001569997583424364</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.008643662031937975</v>
+        <v>0.007929409196141697</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1930,19 +1930,19 @@
         <v>3705</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11062</v>
+        <v>10828</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002719386462374733</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0007222772253301566</v>
+        <v>0.0007244500788197455</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008119429694341609</v>
+        <v>0.007948073453921093</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>532849</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>500842</v>
+        <v>503817</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>563186</v>
+        <v>563804</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5665346841296988</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5325045540422783</v>
+        <v>0.5356672514187076</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5987892213455753</v>
+        <v>0.5994467917730524</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>584</v>
@@ -2055,19 +2055,19 @@
         <v>602007</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>569054</v>
+        <v>569831</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>633683</v>
+        <v>633770</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5801743727989331</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5484155923573635</v>
+        <v>0.5491652356818592</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.610700633516726</v>
+        <v>0.6107849046654296</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1149</v>
@@ -2076,19 +2076,19 @@
         <v>1134857</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1092101</v>
+        <v>1093797</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1179659</v>
+        <v>1176102</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5736892559655759</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5520754809835926</v>
+        <v>0.5529330060216211</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5963377360435568</v>
+        <v>0.594539721946553</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>259149</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>233915</v>
+        <v>230869</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>286508</v>
+        <v>285616</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2755323533588936</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2487027926976378</v>
+        <v>0.2454638016784661</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3046206205312735</v>
+        <v>0.3036722518091663</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>233</v>
@@ -2126,19 +2126,19 @@
         <v>245576</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>218952</v>
+        <v>218287</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>274611</v>
+        <v>273665</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2366700194533992</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2110110432445932</v>
+        <v>0.2103701191894393</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2646518957216755</v>
+        <v>0.2637402707920051</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>501</v>
@@ -2147,19 +2147,19 @@
         <v>504726</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>466705</v>
+        <v>467213</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>546412</v>
+        <v>545159</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2551474775468923</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2359270709374516</v>
+        <v>0.2361840516501573</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2762207365852787</v>
+        <v>0.2755873171919458</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>110293</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>92375</v>
+        <v>91463</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>130305</v>
+        <v>129679</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1172653106489187</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09821510964414569</v>
+        <v>0.09724531647709182</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1385422774524699</v>
+        <v>0.1378766617900032</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>118</v>
@@ -2197,19 +2197,19 @@
         <v>123761</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>103452</v>
+        <v>103562</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>144393</v>
+        <v>145548</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1192727242977759</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09970009582356733</v>
+        <v>0.09980613432082892</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1391559052145336</v>
+        <v>0.1402696069322323</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>236</v>
@@ -2218,19 +2218,19 @@
         <v>234054</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>206367</v>
+        <v>208084</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>265020</v>
+        <v>263198</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1183182808085283</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1043222346276924</v>
+        <v>0.105189907640862</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1339719678993882</v>
+        <v>0.1330510877045975</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>36570</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>26513</v>
+        <v>25870</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>49660</v>
+        <v>50504</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03888150507827633</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02818929275706714</v>
+        <v>0.02750518928786536</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05279978003046715</v>
+        <v>0.05369660215196179</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>54</v>
@@ -2268,19 +2268,19 @@
         <v>58450</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44765</v>
+        <v>44707</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>75086</v>
+        <v>74799</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05633012973258773</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04314107099161619</v>
+        <v>0.0430854479163864</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07236296006076287</v>
+        <v>0.07208609711046318</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>93</v>
@@ -2289,19 +2289,19 @@
         <v>95020</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>76971</v>
+        <v>77045</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>114555</v>
+        <v>117377</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04803401886021555</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03891033855532897</v>
+        <v>0.03894775460121485</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05790969754871359</v>
+        <v>0.05933608475192144</v>
       </c>
     </row>
     <row r="26">
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5108</v>
+        <v>5114</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.001786146784212572</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.005430819644723511</v>
+        <v>0.005437599822703441</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -2339,19 +2339,19 @@
         <v>7837</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3412</v>
+        <v>3293</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15732</v>
+        <v>16307</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.007552753717304066</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003288486686856582</v>
+        <v>0.003173832406346937</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01516102975268817</v>
+        <v>0.01571534478001593</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -2360,19 +2360,19 @@
         <v>9517</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4831</v>
+        <v>4110</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18070</v>
+        <v>17563</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004810966818787901</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002442176884366102</v>
+        <v>0.002077431601235677</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.009134474081816274</v>
+        <v>0.008878293266399816</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>1891839</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1836965</v>
+        <v>1830922</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1951062</v>
+        <v>1944766</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5776851753156648</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5609290878681212</v>
+        <v>0.5590838046114259</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5957692855220883</v>
+        <v>0.5938466674322143</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1882</v>
@@ -2485,19 +2485,19 @@
         <v>1915986</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1863083</v>
+        <v>1859217</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1976374</v>
+        <v>1970030</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5671589223515566</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5514988234010662</v>
+        <v>0.5503544879762726</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5850346818337023</v>
+        <v>0.5831566064868959</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3726</v>
@@ -2506,19 +2506,19 @@
         <v>3807825</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3728081</v>
+        <v>3728415</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3893621</v>
+        <v>3894754</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5723402861873437</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5603543092163363</v>
+        <v>0.5604043770932865</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5852359272739218</v>
+        <v>0.5854062946426564</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>904687</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>853723</v>
+        <v>857425</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>960327</v>
+        <v>956567</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2762520471993395</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2606896395894835</v>
+        <v>0.2618202658214951</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.293241946216015</v>
+        <v>0.2920939590458418</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>876</v>
@@ -2556,19 +2556,19 @@
         <v>897641</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>845292</v>
+        <v>843722</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>950852</v>
+        <v>949639</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2657143456632997</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2502182605430117</v>
+        <v>0.249753573353882</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2814656831480899</v>
+        <v>0.2811065357929733</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1770</v>
@@ -2577,19 +2577,19 @@
         <v>1802328</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1728833</v>
+        <v>1728821</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1877061</v>
+        <v>1875345</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2709013448582958</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2598546413717323</v>
+        <v>0.2598527318034822</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2821341645369725</v>
+        <v>0.2818762498102753</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>383807</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>347782</v>
+        <v>347336</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>421052</v>
+        <v>423572</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1171979999093724</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1061973391163684</v>
+        <v>0.1060612791867001</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1285709459528531</v>
+        <v>0.1293403993465097</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>391</v>
@@ -2627,19 +2627,19 @@
         <v>407897</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>371072</v>
+        <v>371417</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>445257</v>
+        <v>445626</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1207432540756452</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1098427011326487</v>
+        <v>0.1099446265323902</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1318023106895079</v>
+        <v>0.131911737930083</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>772</v>
@@ -2648,19 +2648,19 @@
         <v>791704</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>744428</v>
+        <v>742697</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>846854</v>
+        <v>843342</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1189981647462861</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1118921970562288</v>
+        <v>0.1116321233677828</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.12728754090726</v>
+        <v>0.1267596271940936</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>84504</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>67964</v>
+        <v>68369</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>103973</v>
+        <v>105346</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02580397185400931</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02075326655444842</v>
+        <v>0.02087689058312858</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03174892486262783</v>
+        <v>0.03216811622981627</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>131</v>
@@ -2698,19 +2698,19 @@
         <v>138901</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>116990</v>
+        <v>116800</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>163864</v>
+        <v>161953</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04111661031946665</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03463070794609234</v>
+        <v>0.03457449936365219</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04850617618558323</v>
+        <v>0.04794049221562395</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>215</v>
@@ -2719,19 +2719,19 @@
         <v>223405</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>196381</v>
+        <v>195700</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>256481</v>
+        <v>259283</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03357923197164119</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02951736109310844</v>
+        <v>0.0294148855218979</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03855067570317415</v>
+        <v>0.03897188313338534</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>10024</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4693</v>
+        <v>4752</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>18092</v>
+        <v>19796</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.003060805721613972</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001433075983502388</v>
+        <v>0.001451129745975857</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.005524577834560482</v>
+        <v>0.006044719332688979</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>16</v>
@@ -2769,19 +2769,19 @@
         <v>17793</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>9767</v>
+        <v>10022</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>27603</v>
+        <v>28185</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005266867590031726</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002891185810479231</v>
+        <v>0.002966756707373645</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008170874622488049</v>
+        <v>0.008343127437593837</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>25</v>
@@ -2790,19 +2790,19 @@
         <v>27816</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>18377</v>
+        <v>17989</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>40962</v>
+        <v>41356</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004180972236433124</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002762116635734415</v>
+        <v>0.002703919556562782</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.006156901189291734</v>
+        <v>0.006216113376663255</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>472197</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>448304</v>
+        <v>445762</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>498475</v>
+        <v>496129</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.673882066405224</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.639785127940553</v>
+        <v>0.6361560929928918</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7113851251618394</v>
+        <v>0.7080359424453788</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>407</v>
@@ -3155,19 +3155,19 @@
         <v>433949</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>409017</v>
+        <v>408298</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>459146</v>
+        <v>463002</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6250566413629473</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5891441278969077</v>
+        <v>0.5881091946915559</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6613496132343742</v>
+        <v>0.6669041682915984</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>861</v>
@@ -3176,19 +3176,19 @@
         <v>906147</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>869136</v>
+        <v>867399</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>939438</v>
+        <v>942202</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6495823216225978</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6230505464923333</v>
+        <v>0.6218055808572347</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6734479936740848</v>
+        <v>0.6754288365536375</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>174017</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>150472</v>
+        <v>153058</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>198595</v>
+        <v>198638</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2483437036746338</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2147417686405595</v>
+        <v>0.2184327638026306</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2834195494692355</v>
+        <v>0.2834808499532248</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>175</v>
@@ -3226,19 +3226,19 @@
         <v>190181</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>167072</v>
+        <v>163910</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>215460</v>
+        <v>213827</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2739343444519264</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2406487285883751</v>
+        <v>0.2360947120674759</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3103470704937735</v>
+        <v>0.3079950169211278</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>338</v>
@@ -3247,19 +3247,19 @@
         <v>364198</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>332984</v>
+        <v>332171</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>400413</v>
+        <v>401145</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2610798148129114</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2387035709476929</v>
+        <v>0.2381207586534232</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.287041118062311</v>
+        <v>0.2875659769258175</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>40785</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30180</v>
+        <v>30238</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>54540</v>
+        <v>54999</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0582045987201578</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04307111472652674</v>
+        <v>0.04315280998945286</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07783547006267412</v>
+        <v>0.07848958200649392</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>47</v>
@@ -3297,19 +3297,19 @@
         <v>50498</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>37919</v>
+        <v>37312</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>66278</v>
+        <v>66930</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07273746422496506</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05461861441166155</v>
+        <v>0.05374350438343906</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09546579217752317</v>
+        <v>0.09640525140663689</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>87</v>
@@ -3318,19 +3318,19 @@
         <v>91283</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>72699</v>
+        <v>73019</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>111199</v>
+        <v>112744</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06543740667669416</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05211549457126825</v>
+        <v>0.05234444291101853</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07971411792118491</v>
+        <v>0.08082227461660892</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>9941</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5104</v>
+        <v>5000</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17720</v>
+        <v>17731</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01418688299682143</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007284046760192255</v>
+        <v>0.00713558085005571</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02528836370919565</v>
+        <v>0.02530373113480934</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -3368,19 +3368,19 @@
         <v>13462</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7374</v>
+        <v>7309</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22314</v>
+        <v>21877</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01939007695923891</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01062140546771956</v>
+        <v>0.01052711540951599</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0321405941121423</v>
+        <v>0.03151210132839436</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -3389,19 +3389,19 @@
         <v>23403</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14625</v>
+        <v>14901</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33568</v>
+        <v>34773</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01677644131058456</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01048438261354514</v>
+        <v>0.01068172178040752</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02406349260369435</v>
+        <v>0.02492750169802295</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>3772</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1110</v>
+        <v>955</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9247</v>
+        <v>9305</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005382748203163086</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001583878541290984</v>
+        <v>0.001363143703864218</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01319616169780883</v>
+        <v>0.01327871501541656</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -3439,19 +3439,19 @@
         <v>6166</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2166</v>
+        <v>2078</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13719</v>
+        <v>13256</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.008881473000922268</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003119658772499396</v>
+        <v>0.002993422561620729</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01976087967353773</v>
+        <v>0.01909356254739982</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -3460,19 +3460,19 @@
         <v>9938</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5058</v>
+        <v>5103</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18282</v>
+        <v>17157</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007124015577212132</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003625678516520421</v>
+        <v>0.003657809350738281</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01310564684477198</v>
+        <v>0.01229930658866701</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>608158</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>579666</v>
+        <v>574753</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>639691</v>
+        <v>639186</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5998495595364836</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5717466713066998</v>
+        <v>0.5669007518640881</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6309514615691078</v>
+        <v>0.6304535781119799</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>543</v>
@@ -3585,19 +3585,19 @@
         <v>590530</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>557177</v>
+        <v>555969</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>622853</v>
+        <v>624179</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5743910364655722</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5419493682633353</v>
+        <v>0.5407749236002714</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6058311142883306</v>
+        <v>0.607120758892163</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1105</v>
@@ -3606,19 +3606,19 @@
         <v>1198688</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1157174</v>
+        <v>1152635</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1243288</v>
+        <v>1246042</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5870314859783534</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5667009355107614</v>
+        <v>0.5644779500216854</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6088735039322924</v>
+        <v>0.6102222008014114</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>288819</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>260833</v>
+        <v>260527</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>320692</v>
+        <v>321091</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2848729902324287</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2572692659149609</v>
+        <v>0.256968052840524</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3163110483027525</v>
+        <v>0.3167042052978998</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>291</v>
@@ -3656,19 +3656,19 @@
         <v>322889</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>291695</v>
+        <v>292672</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>357727</v>
+        <v>357456</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3140651700620568</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2837231051220583</v>
+        <v>0.2846738830583475</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3479503466634731</v>
+        <v>0.3476872638632013</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>554</v>
@@ -3677,19 +3677,19 @@
         <v>611708</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>568170</v>
+        <v>566725</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>654371</v>
+        <v>655799</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2995709170263783</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2782487742665768</v>
+        <v>0.2775414237327974</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3204639545073749</v>
+        <v>0.3211634910322153</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>103429</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>84722</v>
+        <v>85721</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>126186</v>
+        <v>124944</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.10201558427109</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08356479884108933</v>
+        <v>0.08454963990540662</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1244619552284808</v>
+        <v>0.1232367855462262</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>88</v>
@@ -3727,19 +3727,19 @@
         <v>98125</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>79062</v>
+        <v>79807</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>118466</v>
+        <v>119313</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09544294200310482</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07690124226568554</v>
+        <v>0.07762573389987761</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1152283844190399</v>
+        <v>0.1160525375660696</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>183</v>
@@ -3748,19 +3748,19 @@
         <v>201553</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>174177</v>
+        <v>173919</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>230517</v>
+        <v>232630</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09870633448359661</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08529942522275354</v>
+        <v>0.08517320897895976</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1128907916882978</v>
+        <v>0.1139254185805826</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>10262</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4926</v>
+        <v>4982</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19282</v>
+        <v>18726</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01012223861785658</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004858938470467261</v>
+        <v>0.004913659859393983</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01901886298429083</v>
+        <v>0.01847047785390892</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -3798,19 +3798,19 @@
         <v>13544</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7570</v>
+        <v>6782</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24244</v>
+        <v>23289</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01317392024908422</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007363336091668184</v>
+        <v>0.006596574739989212</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0235811746302444</v>
+        <v>0.02265247724680206</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -3819,19 +3819,19 @@
         <v>23807</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14023</v>
+        <v>14658</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35908</v>
+        <v>35084</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01165872522063852</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006867642411755076</v>
+        <v>0.007178248405791804</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01758498792282847</v>
+        <v>0.01718151705330421</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>3183</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8596</v>
+        <v>8481</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00313962734214123</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0009504390314209586</v>
+        <v>0.0009440505882343991</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.008478980690273847</v>
+        <v>0.008364674331973411</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11140</v>
+        <v>10559</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002926931220181983</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01083586501469706</v>
+        <v>0.01027019276385081</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -3890,19 +3890,19 @@
         <v>6192</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2075</v>
+        <v>2132</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14445</v>
+        <v>13787</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003032537291033052</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001016350458526179</v>
+        <v>0.001044160506115706</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007073949090903612</v>
+        <v>0.006752070578170456</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>466196</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>438748</v>
+        <v>437584</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>494021</v>
+        <v>496191</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6197353984148312</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5832479944393743</v>
+        <v>0.5817002160712602</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6567239953001252</v>
+        <v>0.6596097911814319</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>410</v>
@@ -4015,19 +4015,19 @@
         <v>451537</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>420058</v>
+        <v>423508</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>478505</v>
+        <v>481256</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5817806312005583</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.541221572156435</v>
+        <v>0.5456665042669604</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6165275717757878</v>
+        <v>0.6200725693599316</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>842</v>
@@ -4036,19 +4036,19 @@
         <v>917733</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>876622</v>
+        <v>875662</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>953383</v>
+        <v>961254</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.600461512416567</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5735626814621831</v>
+        <v>0.5729347261975323</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6237866177019755</v>
+        <v>0.6289367815214862</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>194243</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>170420</v>
+        <v>168317</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>219838</v>
+        <v>220965</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2582155294127625</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2265471513875133</v>
+        <v>0.2237515848327765</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2922412191038015</v>
+        <v>0.2937394321883654</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>211</v>
@@ -4086,19 +4086,19 @@
         <v>229539</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>203177</v>
+        <v>203019</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>257719</v>
+        <v>257744</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2957481324158087</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2617828872876269</v>
+        <v>0.2615786147375507</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3320568626848918</v>
+        <v>0.3320885249597208</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>384</v>
@@ -4107,19 +4107,19 @@
         <v>423782</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>391819</v>
+        <v>388374</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>462387</v>
+        <v>464097</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2772750353613799</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2563619713050928</v>
+        <v>0.2541085277121178</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3025339764461919</v>
+        <v>0.3036526547350515</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>75572</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>58122</v>
+        <v>59096</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>92974</v>
+        <v>95606</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1004612707355708</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07726363244970104</v>
+        <v>0.0785584867418405</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1235943460239777</v>
+        <v>0.1270930435723714</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>62</v>
@@ -4157,19 +4157,19 @@
         <v>72491</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>56821</v>
+        <v>56469</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>92368</v>
+        <v>91526</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09340134169287104</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07321129013810081</v>
+        <v>0.07275685958040921</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1190107906309035</v>
+        <v>0.1179257138884404</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>127</v>
@@ -4178,19 +4178,19 @@
         <v>148064</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>125091</v>
+        <v>124085</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>176609</v>
+        <v>173666</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09687615409510671</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08184545053572363</v>
+        <v>0.08118699937799791</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1155529487340616</v>
+        <v>0.1136273996993782</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>11176</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6104</v>
+        <v>5347</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20482</v>
+        <v>19329</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01485642086511288</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008114975129205688</v>
+        <v>0.007108645759087091</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02722745569860708</v>
+        <v>0.02569504656267667</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -4228,19 +4228,19 @@
         <v>20482</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12303</v>
+        <v>13202</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30520</v>
+        <v>31885</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02639037840382347</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01585111482847111</v>
+        <v>0.01701035310010038</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03932318366392441</v>
+        <v>0.04108180525498215</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -4249,19 +4249,19 @@
         <v>31658</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21680</v>
+        <v>21513</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>45744</v>
+        <v>44639</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02071350283468245</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01418489234751381</v>
+        <v>0.01407544678901333</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02992967947374418</v>
+        <v>0.02920684611110265</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>5064</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1991</v>
+        <v>1038</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14037</v>
+        <v>12118</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006731380571722739</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002646756040819502</v>
+        <v>0.001380340113634685</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01866045383507478</v>
+        <v>0.01610965648986733</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6442</v>
+        <v>7532</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002679516286938422</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.008300803775452996</v>
+        <v>0.009704174704071896</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -4320,19 +4320,19 @@
         <v>7143</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2816</v>
+        <v>2114</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15364</v>
+        <v>14945</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004673795292263996</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001842520399047836</v>
+        <v>0.001382894280002284</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01005239150510397</v>
+        <v>0.009778180491706628</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>545719</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>513414</v>
+        <v>512735</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>576107</v>
+        <v>577776</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.576935002819102</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.542782242571422</v>
+        <v>0.5420638392526426</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6090603966991083</v>
+        <v>0.6108254551783232</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>551</v>
@@ -4445,19 +4445,19 @@
         <v>571884</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>538730</v>
+        <v>542521</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>606237</v>
+        <v>606472</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5453646379741687</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5137482357040811</v>
+        <v>0.5173631806670872</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5781249955850745</v>
+        <v>0.5783484735794945</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1082</v>
@@ -4466,19 +4466,19 @@
         <v>1117603</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1075226</v>
+        <v>1070740</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1162235</v>
+        <v>1162199</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5603367668721349</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5390898734375238</v>
+        <v>0.5368409172721728</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5827137219072795</v>
+        <v>0.5826957886454563</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>282589</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>256590</v>
+        <v>254976</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>312861</v>
+        <v>314460</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2987531083113504</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2712668532169601</v>
+        <v>0.2695605820659202</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3307572447588868</v>
+        <v>0.3324471539263674</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>318</v>
@@ -4516,19 +4516,19 @@
         <v>336782</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>304318</v>
+        <v>305535</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>365713</v>
+        <v>365150</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3211651848750109</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2902060370107714</v>
+        <v>0.2913663014725278</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.34875393278877</v>
+        <v>0.3482169196884267</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>584</v>
@@ -4537,19 +4537,19 @@
         <v>619371</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>576976</v>
+        <v>579748</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>658421</v>
+        <v>664560</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3105363403611641</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2892806916199525</v>
+        <v>0.2906700832853604</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3301146776672828</v>
+        <v>0.3331929143349546</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>96171</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>78025</v>
+        <v>78800</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>116887</v>
+        <v>116774</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1016723818748688</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08248781536624902</v>
+        <v>0.08330726489851982</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1235730138401067</v>
+        <v>0.1234532460363999</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>98</v>
@@ -4587,19 +4587,19 @@
         <v>104653</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>85747</v>
+        <v>86005</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>123969</v>
+        <v>125445</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09979992317665977</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08177080583444882</v>
+        <v>0.08201657661852105</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1182198895564085</v>
+        <v>0.1196275824115168</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>189</v>
@@ -4608,19 +4608,19 @@
         <v>200824</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>176250</v>
+        <v>175440</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>231920</v>
+        <v>232647</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1006879297969001</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08836712898996847</v>
+        <v>0.08796121854195328</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1162783050342649</v>
+        <v>0.1166431283470233</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>18395</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11043</v>
+        <v>11004</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29125</v>
+        <v>30022</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01944728023727764</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01167468201438649</v>
+        <v>0.0116337150640395</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03079074352058651</v>
+        <v>0.0317393494169362</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -4658,19 +4658,19 @@
         <v>24002</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15709</v>
+        <v>15354</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>36639</v>
+        <v>36962</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02288895748891413</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01498081835219653</v>
+        <v>0.01464219084830315</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03494015234080781</v>
+        <v>0.03524822503714442</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>39</v>
@@ -4679,19 +4679,19 @@
         <v>42397</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30936</v>
+        <v>30026</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>58532</v>
+        <v>57410</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02125675476684235</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01551045437692728</v>
+        <v>0.01505399728145892</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02934625812672694</v>
+        <v>0.02878363990112202</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>3020</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8183</v>
+        <v>8133</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003192226757401175</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00103904755322717</v>
+        <v>0.001036305394963572</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.008651492465668313</v>
+        <v>0.008598346249543492</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -4729,19 +4729,19 @@
         <v>11306</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6398</v>
+        <v>5928</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20404</v>
+        <v>18929</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01078129648524649</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006100907246726228</v>
+        <v>0.005652937947160355</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01945765367097659</v>
+        <v>0.01805122690612792</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>14</v>
@@ -4750,19 +4750,19 @@
         <v>14325</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8116</v>
+        <v>8248</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>22581</v>
+        <v>24469</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0071822082029586</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004069287050654759</v>
+        <v>0.00413543269730781</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0113214061348032</v>
+        <v>0.01226802995033683</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>2092271</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2033221</v>
+        <v>2037949</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2153185</v>
+        <v>2151982</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6130823985498454</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5957795228164208</v>
+        <v>0.5971649102447131</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6309317416124476</v>
+        <v>0.6305790468923073</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1911</v>
@@ -4875,19 +4875,19 @@
         <v>2047901</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1989978</v>
+        <v>1988353</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2110389</v>
+        <v>2107310</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5773433936366602</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5610138000960035</v>
+        <v>0.5605557880220388</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5949600928238804</v>
+        <v>0.5940919727585954</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3890</v>
@@ -4896,19 +4896,19 @@
         <v>4140171</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4057376</v>
+        <v>4050390</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4227639</v>
+        <v>4223960</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5948678116768548</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5829716655769893</v>
+        <v>0.5819679394519049</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6074353162926657</v>
+        <v>0.6069067861803839</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>939668</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>884985</v>
+        <v>891439</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>995684</v>
+        <v>997857</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2753437677502325</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2593204523175106</v>
+        <v>0.2612116186387341</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2917577530492021</v>
+        <v>0.2923945542814624</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>995</v>
@@ -4946,19 +4946,19 @@
         <v>1079392</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1021193</v>
+        <v>1028208</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1132926</v>
+        <v>1141663</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3043016713205334</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2878943881726186</v>
+        <v>0.2898719348580351</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3193941214842361</v>
+        <v>0.3218572430955966</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1860</v>
@@ -4967,19 +4967,19 @@
         <v>2019059</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1934849</v>
+        <v>1940124</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2098780</v>
+        <v>2096154</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2901023278030989</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2780028370800868</v>
+        <v>0.2787607157985779</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3015567511929113</v>
+        <v>0.301179471991513</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>315957</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>284314</v>
+        <v>282321</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>358803</v>
+        <v>351528</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09258239046395032</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08331041107472652</v>
+        <v>0.08272632068621799</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.105137332855179</v>
+        <v>0.1030057452924585</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>295</v>
@@ -5017,19 +5017,19 @@
         <v>325767</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>290673</v>
+        <v>291548</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>360696</v>
+        <v>362000</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09184025721653723</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08194648671330791</v>
+        <v>0.08219318774376184</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1016872192724902</v>
+        <v>0.1020549747401513</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>586</v>
@@ -5038,19 +5038,19 @@
         <v>641724</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>593274</v>
+        <v>588111</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>691282</v>
+        <v>692382</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09220415803864422</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08524272059099111</v>
+        <v>0.08450093727263765</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09932474753112501</v>
+        <v>0.09948271976433853</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>49774</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>35656</v>
+        <v>37289</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>65412</v>
+        <v>66636</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01458495322537761</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01044812878109546</v>
+        <v>0.01092648893812732</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01916728755540987</v>
+        <v>0.01952593597970986</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>66</v>
@@ -5088,19 +5088,19 @@
         <v>71490</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>55566</v>
+        <v>55752</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>89972</v>
+        <v>92407</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02015445856469076</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01566512414061065</v>
+        <v>0.01571770507155626</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02536498853978156</v>
+        <v>0.02605143572419922</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>112</v>
@@ -5109,19 +5109,19 @@
         <v>121264</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>97907</v>
+        <v>101464</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>145522</v>
+        <v>146930</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01742348325968973</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01406741026093193</v>
+        <v>0.01457858761640063</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02090884823955968</v>
+        <v>0.02111123206317134</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>15038</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8267</v>
+        <v>8120</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>24330</v>
+        <v>25293</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.004406490010594188</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002422296766431365</v>
+        <v>0.00237926693825957</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0071293810190502</v>
+        <v>0.007411417118661006</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>21</v>
@@ -5159,19 +5159,19 @@
         <v>22560</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>14219</v>
+        <v>14521</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>35107</v>
+        <v>34871</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.006360219261578369</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004008677371084837</v>
+        <v>0.004093678264737137</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.00989726441684448</v>
+        <v>0.009830721143513327</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>35</v>
@@ -5180,19 +5180,19 @@
         <v>37598</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>26264</v>
+        <v>26434</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>51650</v>
+        <v>52415</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005402219221712359</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003773605219307799</v>
+        <v>0.003798079275968015</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.00742120348430653</v>
+        <v>0.007531112482220558</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>338544</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>311687</v>
+        <v>312128</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>365014</v>
+        <v>362698</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5024826632412271</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4626204876558841</v>
+        <v>0.4632757908267521</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5417713111388081</v>
+        <v>0.5383343956806467</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>324</v>
@@ -5545,19 +5545,19 @@
         <v>326633</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>300444</v>
+        <v>299740</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>351950</v>
+        <v>351414</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4882690435933444</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4491199449725519</v>
+        <v>0.4480673427615847</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.526113713466519</v>
+        <v>0.5253124199460056</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>649</v>
@@ -5566,19 +5566,19 @@
         <v>665177</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>631730</v>
+        <v>631953</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>702239</v>
+        <v>703905</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4954011497413627</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4704906610838159</v>
+        <v>0.4706568470942797</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5230032777446092</v>
+        <v>0.524244409750992</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>220348</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>198002</v>
+        <v>197808</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>246879</v>
+        <v>245136</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3270517272597356</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2938836466137435</v>
+        <v>0.2935965442906955</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3664295537815077</v>
+        <v>0.3638418127993459</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>212</v>
@@ -5616,19 +5616,19 @@
         <v>211824</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>189277</v>
+        <v>187822</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>236036</v>
+        <v>236835</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3166453686988026</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2829416400421628</v>
+        <v>0.2807658456576084</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3528387711877298</v>
+        <v>0.3540332087055814</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>428</v>
@@ -5637,19 +5637,19 @@
         <v>432172</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>400815</v>
+        <v>395836</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>465178</v>
+        <v>464303</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3218670684283271</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2985135820990386</v>
+        <v>0.2948054820684327</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.346448831673492</v>
+        <v>0.3457973081204665</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>97415</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>80259</v>
+        <v>79994</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>118827</v>
+        <v>116247</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1445880384825586</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1191240230240311</v>
+        <v>0.1187310039521246</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1763693151533369</v>
+        <v>0.1725398588569193</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>110</v>
@@ -5687,19 +5687,19 @@
         <v>112108</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>94725</v>
+        <v>93400</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>132267</v>
+        <v>130953</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1675857244064932</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.141599776342431</v>
+        <v>0.1396193977005322</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1977190998653035</v>
+        <v>0.1957559909272274</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>203</v>
@@ -5708,19 +5708,19 @@
         <v>209524</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>184266</v>
+        <v>183965</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>235227</v>
+        <v>237349</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.156045951904369</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1372353375262188</v>
+        <v>0.1370108694115865</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.175189036407906</v>
+        <v>0.1767697185357403</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>13809</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7933</v>
+        <v>7485</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22246</v>
+        <v>22761</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02049604412168957</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01177517664693802</v>
+        <v>0.01111013615491291</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03301896228288891</v>
+        <v>0.03378279089527679</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -5758,19 +5758,19 @@
         <v>12075</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6393</v>
+        <v>6265</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21669</v>
+        <v>22805</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01805088255612984</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009556493530044993</v>
+        <v>0.00936483957420455</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03239153564791321</v>
+        <v>0.03409035002354897</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -5779,19 +5779,19 @@
         <v>25884</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16551</v>
+        <v>16858</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38518</v>
+        <v>37275</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01927781505233073</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01232679136037456</v>
+        <v>0.01255533093735105</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02868656168296509</v>
+        <v>0.02776144519529236</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>3626</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10537</v>
+        <v>10798</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005381526894789028</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001492927094325497</v>
+        <v>0.001486102239415183</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01563959713401067</v>
+        <v>0.01602632618267451</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -5829,19 +5829,19 @@
         <v>6321</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2711</v>
+        <v>2182</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13727</v>
+        <v>13216</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.009448980745230018</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004052321616133395</v>
+        <v>0.003262155843616824</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02051957090497737</v>
+        <v>0.01975567918956625</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -5850,19 +5850,19 @@
         <v>9947</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4852</v>
+        <v>4999</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18235</v>
+        <v>18943</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007408014873610372</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003613792903297915</v>
+        <v>0.003723304711247597</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0135810644764906</v>
+        <v>0.01410794898447798</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>584041</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>550209</v>
+        <v>551674</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>617702</v>
+        <v>615689</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5718243203760864</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5386993050491686</v>
+        <v>0.5401342626821091</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6047807733305235</v>
+        <v>0.6028101915970648</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>559</v>
@@ -5975,19 +5975,19 @@
         <v>588406</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>558457</v>
+        <v>556344</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>624878</v>
+        <v>620120</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5646948469875761</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.535953341257503</v>
+        <v>0.5339250781917825</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.599697738132231</v>
+        <v>0.5951309205140606</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1104</v>
@@ -5996,19 +5996,19 @@
         <v>1172447</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1124533</v>
+        <v>1129688</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1216831</v>
+        <v>1220867</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5682239535386059</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.545002331375166</v>
+        <v>0.547501054211362</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5897343333898869</v>
+        <v>0.5916905504691794</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>305541</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>275189</v>
+        <v>274059</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>335971</v>
+        <v>338042</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2991492937056173</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2694329216369144</v>
+        <v>0.2683263585810172</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3289426760231002</v>
+        <v>0.3309710156962911</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>291</v>
@@ -6046,19 +6046,19 @@
         <v>314314</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>282967</v>
+        <v>284896</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>344881</v>
+        <v>345216</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3016481964827449</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2715639049661996</v>
+        <v>0.2734157416552129</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3309830108173968</v>
+        <v>0.3313044601632874</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>574</v>
@@ -6067,19 +6067,19 @@
         <v>619855</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>577947</v>
+        <v>578196</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>661702</v>
+        <v>664063</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3004112335710999</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2801009693682188</v>
+        <v>0.2802214443628419</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3206922447940074</v>
+        <v>0.3218368169051782</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>110834</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>92883</v>
+        <v>92486</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>134241</v>
+        <v>131501</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1085154747640633</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0909400291560394</v>
+        <v>0.09055123248906363</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1314326286466876</v>
+        <v>0.1287499012287338</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>104</v>
@@ -6117,19 +6117,19 @@
         <v>115363</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>96517</v>
+        <v>95249</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>137822</v>
+        <v>138242</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1107143230146236</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09262723014339477</v>
+        <v>0.09141123283236417</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1322679429188402</v>
+        <v>0.1326709574730562</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>205</v>
@@ -6138,19 +6138,19 @@
         <v>226197</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>199414</v>
+        <v>196668</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>256607</v>
+        <v>257783</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1096258878185152</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09664551728603621</v>
+        <v>0.09531487035140547</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1243638117951513</v>
+        <v>0.1249338715036982</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>17760</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10609</v>
+        <v>10912</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27994</v>
+        <v>27271</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01738848176139271</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01038684889947505</v>
+        <v>0.0106841421226016</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02740853937963835</v>
+        <v>0.02670006023739232</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -6188,19 +6188,19 @@
         <v>20082</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12653</v>
+        <v>12403</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30692</v>
+        <v>30226</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0192728905465212</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01214348250109717</v>
+        <v>0.0119036678605888</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02945476170256159</v>
+        <v>0.02900799755704748</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -6209,19 +6209,19 @@
         <v>37842</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26678</v>
+        <v>27174</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>52103</v>
+        <v>50478</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01834010364543922</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01292923538949735</v>
+        <v>0.01316995403948142</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02525167549983309</v>
+        <v>0.02446394671994812</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>3189</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8799</v>
+        <v>9354</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003122429392840261</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.000950126507674937</v>
+        <v>0.0009473902308380377</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.008614673321932317</v>
+        <v>0.009158564516601714</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -6259,19 +6259,19 @@
         <v>3824</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10724</v>
+        <v>11076</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003669742968534122</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0009403187817655296</v>
+        <v>0.0009399068470569042</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01029201354457434</v>
+        <v>0.01062956880295468</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -6280,19 +6280,19 @@
         <v>7013</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2924</v>
+        <v>3017</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15249</v>
+        <v>16095</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00339882142633978</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001416959750435641</v>
+        <v>0.00146241429346817</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007390371744153044</v>
+        <v>0.007800324414999321</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>356027</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>326395</v>
+        <v>328340</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>383257</v>
+        <v>384421</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4699694315624529</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4308541639698326</v>
+        <v>0.4334212889321796</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5059135797788588</v>
+        <v>0.5074504975327091</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>329</v>
@@ -6405,19 +6405,19 @@
         <v>347217</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>322989</v>
+        <v>317070</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>376908</v>
+        <v>375632</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4453220914968605</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4142484312002738</v>
+        <v>0.4066569423974293</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4834031111956284</v>
+        <v>0.4817661728445935</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>657</v>
@@ -6426,19 +6426,19 @@
         <v>703244</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>661690</v>
+        <v>660523</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>740681</v>
+        <v>742652</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.457468241330571</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4304367322469261</v>
+        <v>0.429677411030902</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4818211402243555</v>
+        <v>0.4831030652233561</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>259381</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>231570</v>
+        <v>233974</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>285287</v>
+        <v>287001</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3423921700841511</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3056810790177555</v>
+        <v>0.3088546841816128</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3765901391300899</v>
+        <v>0.3788516870575204</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>269</v>
@@ -6476,19 +6476,19 @@
         <v>286063</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>259509</v>
+        <v>259539</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>312955</v>
+        <v>314349</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.366889794452241</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3328332759404545</v>
+        <v>0.3328713160839986</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4013795814745387</v>
+        <v>0.4031675999008116</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>505</v>
@@ -6497,19 +6497,19 @@
         <v>545444</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>506381</v>
+        <v>509190</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>583530</v>
+        <v>585321</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3548174241537455</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3294065383142859</v>
+        <v>0.3312339279573795</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3795927499773201</v>
+        <v>0.3807577672085148</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>126268</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>108024</v>
+        <v>106596</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>151740</v>
+        <v>149279</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1666786368004749</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1425955490250001</v>
+        <v>0.1407103796104672</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2003031290937563</v>
+        <v>0.1970537032466692</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>125</v>
@@ -6547,19 +6547,19 @@
         <v>136111</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>114792</v>
+        <v>112788</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>155884</v>
+        <v>159134</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1745685742982009</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1472266265997131</v>
+        <v>0.1446561502356067</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1999286747227805</v>
+        <v>0.20409651705708</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>240</v>
@@ -6568,19 +6568,19 @@
         <v>262379</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>231794</v>
+        <v>231363</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>295758</v>
+        <v>293373</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.170680432098233</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1507845218118041</v>
+        <v>0.1505042751069764</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1923940946132321</v>
+        <v>0.1908425149973678</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>15013</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8330</v>
+        <v>8826</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25958</v>
+        <v>24746</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01981833252068239</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01099652205746823</v>
+        <v>0.0116508087469794</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03426537884588251</v>
+        <v>0.03266558872334498</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -6618,19 +6618,19 @@
         <v>9222</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4661</v>
+        <v>4175</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18924</v>
+        <v>19000</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01182751937313726</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005978061687265491</v>
+        <v>0.005354441677139679</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02427154908401194</v>
+        <v>0.02436884454873679</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -6639,19 +6639,19 @@
         <v>24235</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15439</v>
+        <v>15024</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36880</v>
+        <v>35961</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01576537285042826</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01004344990682059</v>
+        <v>0.009773164750595474</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02399105664299112</v>
+        <v>0.02339311533646608</v>
       </c>
     </row>
     <row r="20">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3942</v>
+        <v>4992</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0011414290322388</v>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.005203430201769288</v>
+        <v>0.006590214990493991</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5038</v>
+        <v>5446</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001392020379560303</v>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.006461676911169171</v>
+        <v>0.006984543179834249</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -6713,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6194</v>
+        <v>6081</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001268529567022386</v>
@@ -6722,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.004029295230798575</v>
+        <v>0.003955447213822694</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>548063</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>516458</v>
+        <v>514887</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>576420</v>
+        <v>576626</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5870207998249132</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5531687649847705</v>
+        <v>0.5514861286121301</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.617393243518234</v>
+        <v>0.6176138024104874</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>559</v>
@@ -6835,19 +6835,19 @@
         <v>603353</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>568366</v>
+        <v>569663</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>637999</v>
+        <v>635990</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5786043280330747</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5450526119221184</v>
+        <v>0.5462957910778422</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6118287647151033</v>
+        <v>0.6099027608490899</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1100</v>
@@ -6856,19 +6856,19 @@
         <v>1151416</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1105779</v>
+        <v>1109009</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1193734</v>
+        <v>1194872</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5825801833700192</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5594894734341245</v>
+        <v>0.561123465494367</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6039919270680558</v>
+        <v>0.604567674781483</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>264798</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>238132</v>
+        <v>236278</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>293579</v>
+        <v>291790</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2836201990992092</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2550591992468498</v>
+        <v>0.2530731556727391</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.314446794565541</v>
+        <v>0.3125315964256168</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>267</v>
@@ -6906,19 +6906,19 @@
         <v>290390</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>261324</v>
+        <v>261447</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>322176</v>
+        <v>321210</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2784785507640543</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2506044591201309</v>
+        <v>0.2507228375479368</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3089609313891029</v>
+        <v>0.3080342383261608</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>531</v>
@@ -6927,19 +6927,19 @@
         <v>555188</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>516002</v>
+        <v>517932</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>599040</v>
+        <v>594789</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2809074129380879</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2610804576225</v>
+        <v>0.2620574652571256</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3030953786731965</v>
+        <v>0.3009446472739342</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>100990</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>82803</v>
+        <v>84636</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>119327</v>
+        <v>119157</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1081686432699117</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08868845002436687</v>
+        <v>0.09065263865711419</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1278094492078426</v>
+        <v>0.1276272808797287</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>97</v>
@@ -6977,19 +6977,19 @@
         <v>109469</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>90541</v>
+        <v>91375</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>134261</v>
+        <v>134326</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.104978309840822</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08682680032049597</v>
+        <v>0.08762718213201103</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1287541723523989</v>
+        <v>0.1288159904054532</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>201</v>
@@ -6998,19 +6998,19 @@
         <v>210459</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>181771</v>
+        <v>181510</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>240808</v>
+        <v>239426</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1064853907773943</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.091970509463392</v>
+        <v>0.09183857762050565</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1218412522129223</v>
+        <v>0.1211420650809401</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>17525</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10706</v>
+        <v>10383</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27771</v>
+        <v>27000</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01877066410278332</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01146693105164462</v>
+        <v>0.01112107970373295</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02974479711620794</v>
+        <v>0.02891933300342144</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -7048,19 +7048,19 @@
         <v>31444</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21265</v>
+        <v>21185</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>44430</v>
+        <v>44806</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03015383513308979</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02039319772724943</v>
+        <v>0.02031559677889355</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04260773168258474</v>
+        <v>0.04296781881528854</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>46</v>
@@ -7069,19 +7069,19 @@
         <v>48969</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>36233</v>
+        <v>37063</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>64084</v>
+        <v>64909</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02477654136777568</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01833291934504717</v>
+        <v>0.01875255707532015</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03242458599524802</v>
+        <v>0.03284197285765724</v>
       </c>
     </row>
     <row r="26">
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7109</v>
+        <v>7286</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.002419693703182571</v>
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.007614843388377468</v>
+        <v>0.007803754952484959</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -7119,19 +7119,19 @@
         <v>8118</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3438</v>
+        <v>3504</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15788</v>
+        <v>16390</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.007784976228959197</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003296573300060005</v>
+        <v>0.003360128892765304</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01514059830770225</v>
+        <v>0.01571816217639704</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -7140,19 +7140,19 @@
         <v>10377</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4771</v>
+        <v>4756</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>19321</v>
+        <v>19033</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.005250471546722987</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002414197630584888</v>
+        <v>0.002406333274934581</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.009775679046514741</v>
+        <v>0.009629874262409464</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>1826675</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1765638</v>
+        <v>1767365</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1882259</v>
+        <v>1887979</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5394317013678317</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5214069966877564</v>
+        <v>0.5219167313576584</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5558459486802635</v>
+        <v>0.5575350972528984</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1771</v>
@@ -7265,19 +7265,19 @@
         <v>1865609</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1800211</v>
+        <v>1803811</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1922797</v>
+        <v>1927843</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.527989282208586</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5094808422249858</v>
+        <v>0.5104995433856719</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.544174070583452</v>
+        <v>0.545602127357803</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3510</v>
@@ -7286,19 +7286,19 @@
         <v>3692285</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3590428</v>
+        <v>3608894</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3773840</v>
+        <v>3781880</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5335888481160511</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5188691002208048</v>
+        <v>0.5215376492718417</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5453747063067245</v>
+        <v>0.5465366051386638</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>1050067</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1000305</v>
+        <v>995873</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1106914</v>
+        <v>1109367</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3100932122575811</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2953980145022145</v>
+        <v>0.2940890739242583</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3268805663884031</v>
+        <v>0.3276047905569817</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1039</v>
@@ -7336,19 +7336,19 @@
         <v>1102591</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1048976</v>
+        <v>1046377</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1159952</v>
+        <v>1158528</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.312046221046523</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2968724611301526</v>
+        <v>0.2961369212260747</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.328279932774532</v>
+        <v>0.3278768640580894</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2038</v>
@@ -7357,19 +7357,19 @@
         <v>2152659</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2078453</v>
+        <v>2071908</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2244159</v>
+        <v>2232433</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3110904789714128</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3003667352639569</v>
+        <v>0.29942081347723</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3243136340963907</v>
+        <v>0.3226190601199339</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>435507</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>397488</v>
+        <v>396152</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>476989</v>
+        <v>474332</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1286086749688622</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1173814342543425</v>
+        <v>0.1169869034320104</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1408586147632134</v>
+        <v>0.1400738529333154</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>436</v>
@@ -7407,19 +7407,19 @@
         <v>473051</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>433301</v>
+        <v>429656</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>515443</v>
+        <v>515559</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.133878975935376</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1226293865064675</v>
+        <v>0.1215977042582342</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1458764911603239</v>
+        <v>0.145909231053818</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>849</v>
@@ -7428,19 +7428,19 @@
         <v>908558</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>849586</v>
+        <v>849081</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>968786</v>
+        <v>962597</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1312998537057621</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1227775659286226</v>
+        <v>0.1227044869021809</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1400036866613931</v>
+        <v>0.1391092488574028</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>64107</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>50325</v>
+        <v>50255</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>81371</v>
+        <v>81879</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01893143356152777</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01486148314990949</v>
+        <v>0.01484072899803209</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0240294122925289</v>
+        <v>0.02417948891170368</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>65</v>
@@ -7478,19 +7478,19 @@
         <v>72823</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>57645</v>
+        <v>55792</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>93314</v>
+        <v>90669</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02060976378463467</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01631422966676185</v>
+        <v>0.01578985768554898</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02640887853321051</v>
+        <v>0.02566047602374337</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>129</v>
@@ -7499,19 +7499,19 @@
         <v>136930</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>117045</v>
+        <v>113164</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>164909</v>
+        <v>161110</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01978844090107433</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01691477297175308</v>
+        <v>0.01635387274486727</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02383180390733673</v>
+        <v>0.02328279919366989</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>9939</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5373</v>
+        <v>5074</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>18493</v>
+        <v>19286</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.002934977844197156</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001586693187579508</v>
+        <v>0.001498244963016397</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.005461156821075172</v>
+        <v>0.005695337420329086</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>17</v>
@@ -7549,19 +7549,19 @@
         <v>19348</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11837</v>
+        <v>11875</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>30674</v>
+        <v>30491</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005475757024880354</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003349996651098557</v>
+        <v>0.003360700639713422</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008681031532584734</v>
+        <v>0.008629428271997723</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>26</v>
@@ -7570,19 +7570,19 @@
         <v>29287</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>20251</v>
+        <v>19350</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>43111</v>
+        <v>42247</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.00423237830569973</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002926591902367681</v>
+        <v>0.002796349555979918</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.006230211990319379</v>
+        <v>0.006105268982006</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>402209</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>370593</v>
+        <v>372931</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>431123</v>
+        <v>429072</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5834500210032486</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.537588098386236</v>
+        <v>0.5409791577283793</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6253939495230576</v>
+        <v>0.6224175595692499</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>651</v>
@@ -7935,19 +7935,19 @@
         <v>413657</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>391648</v>
+        <v>393316</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>435547</v>
+        <v>435852</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5662354653309899</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5361089444698004</v>
+        <v>0.5383916952188855</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5961999271234277</v>
+        <v>0.5966180913494106</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1048</v>
@@ -7956,19 +7956,19 @@
         <v>815865</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>782643</v>
+        <v>783408</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>850232</v>
+        <v>851179</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5745931394861964</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5511951345811716</v>
+        <v>0.5517340385333424</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5987963289679807</v>
+        <v>0.5994637883045836</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>197374</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>170155</v>
+        <v>173199</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>222635</v>
+        <v>222455</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2863135058951222</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2468299259636023</v>
+        <v>0.2512456350341039</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3229577854868085</v>
+        <v>0.3226959646220818</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>435</v>
@@ -8006,19 +8006,19 @@
         <v>237824</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>217348</v>
+        <v>219256</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>258210</v>
+        <v>259462</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3255466518561911</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2975183130882162</v>
+        <v>0.3001289326113043</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3534520564727058</v>
+        <v>0.3551662919665875</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>662</v>
@@ -8027,19 +8027,19 @@
         <v>435198</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>404360</v>
+        <v>403599</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>464556</v>
+        <v>467646</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3064989426809451</v>
+        <v>0.3064989426809452</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2847807685965156</v>
+        <v>0.2842441453061059</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3271746816042919</v>
+        <v>0.3293510366579347</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>58950</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45384</v>
+        <v>46855</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>75428</v>
+        <v>76192</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.085514354767976</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06583398686782153</v>
+        <v>0.06796813984479778</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1094172054623605</v>
+        <v>0.1105254589563558</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>90</v>
@@ -8077,19 +8077,19 @@
         <v>48034</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>38319</v>
+        <v>38842</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>58959</v>
+        <v>58606</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06575100959175927</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05245322468838937</v>
+        <v>0.05316893957243689</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08070640937054756</v>
+        <v>0.0802225322185077</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>159</v>
@@ -8098,19 +8098,19 @@
         <v>106984</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>90130</v>
+        <v>89065</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>127019</v>
+        <v>126586</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07534612214327693</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06347634531506999</v>
+        <v>0.0627261691410015</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08945628395596224</v>
+        <v>0.08915105534364166</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>21913</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14180</v>
+        <v>13803</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32326</v>
+        <v>32495</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03178715279999646</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02057032124980224</v>
+        <v>0.02002325724036895</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04689185757345499</v>
+        <v>0.04713824394692612</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -8148,19 +8148,19 @@
         <v>24257</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17695</v>
+        <v>17483</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33276</v>
+        <v>33141</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03320451111330666</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02422167591976856</v>
+        <v>0.02393149604461606</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0455493240205288</v>
+        <v>0.04536493761309617</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>69</v>
@@ -8169,19 +8169,19 @@
         <v>46170</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35339</v>
+        <v>35451</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60344</v>
+        <v>60020</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03251638304486578</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02488826874040622</v>
+        <v>0.02496723752272792</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04249889963982319</v>
+        <v>0.04227068051648371</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>8917</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4299</v>
+        <v>4227</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15746</v>
+        <v>15476</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01293496553365674</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006236299408266655</v>
+        <v>0.006131470122888059</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02284145121801995</v>
+        <v>0.02245021108834569</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -8219,19 +8219,19 @@
         <v>6767</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3751</v>
+        <v>3656</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11979</v>
+        <v>11806</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.009262362107752867</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005134424650802913</v>
+        <v>0.005003944924829145</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01639744388677842</v>
+        <v>0.01616052053071675</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>24</v>
@@ -8240,19 +8240,19 @@
         <v>15683</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10149</v>
+        <v>9960</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>24594</v>
+        <v>23816</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0110454126447158</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.007147423275828983</v>
+        <v>0.007014573841978768</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01732073583463553</v>
+        <v>0.01677274207451558</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>574369</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>536132</v>
+        <v>537775</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>610260</v>
+        <v>609345</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5485600126620719</v>
+        <v>0.5485600126620718</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5120412868992378</v>
+        <v>0.5136104750833065</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5828389904289819</v>
+        <v>0.5819645839362282</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>750</v>
@@ -8365,19 +8365,19 @@
         <v>564310</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>535315</v>
+        <v>534591</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>591824</v>
+        <v>595492</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5275515277972426</v>
+        <v>0.5275515277972425</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5004452556818749</v>
+        <v>0.499768684730716</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5532735340357426</v>
+        <v>0.5567025055771447</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1235</v>
@@ -8386,19 +8386,19 @@
         <v>1138679</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1092088</v>
+        <v>1094117</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1182730</v>
+        <v>1186263</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.537943473178778</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5159325099619423</v>
+        <v>0.5168909909567055</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5587542862013724</v>
+        <v>0.5604234870329269</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>363169</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>328987</v>
+        <v>330462</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>397038</v>
+        <v>398874</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3468502828431927</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3142039967688285</v>
+        <v>0.3156127256505575</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3791972443619935</v>
+        <v>0.3809512078341038</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>539</v>
@@ -8436,19 +8436,19 @@
         <v>359906</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>333238</v>
+        <v>332495</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>388077</v>
+        <v>389373</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3364619014269142</v>
+        <v>0.3364619014269141</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3115316133836415</v>
+        <v>0.3108369498767809</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3627982141688623</v>
+        <v>0.3640095131595415</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>897</v>
@@ -8457,19 +8457,19 @@
         <v>723075</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>684039</v>
+        <v>679686</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>768451</v>
+        <v>766079</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3416005629236914</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3231590116017458</v>
+        <v>0.321102319918122</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3630373286277687</v>
+        <v>0.3619167843605658</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>66992</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>53055</v>
+        <v>52858</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>83243</v>
+        <v>84116</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06398194097169795</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.050671492636953</v>
+        <v>0.0504831174072797</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07950258324172382</v>
+        <v>0.08033663191153335</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>142</v>
@@ -8507,19 +8507,19 @@
         <v>90652</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>77169</v>
+        <v>77130</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>107576</v>
+        <v>108988</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.08474686165279118</v>
+        <v>0.08474686165279116</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07214243242474538</v>
+        <v>0.07210631350806754</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1005688947122391</v>
+        <v>0.101888399940108</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>215</v>
@@ -8528,19 +8528,19 @@
         <v>157644</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>137063</v>
+        <v>136573</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>180153</v>
+        <v>180429</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07447539643489287</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06475214442254</v>
+        <v>0.06452067030505987</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08510910143473591</v>
+        <v>0.08523961744699211</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>29704</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20477</v>
+        <v>21095</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41311</v>
+        <v>41782</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02836957507054706</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01955662791678897</v>
+        <v>0.02014680186558438</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0394548853607927</v>
+        <v>0.03990410908832817</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -8578,19 +8578,19 @@
         <v>47724</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37068</v>
+        <v>38082</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59967</v>
+        <v>61843</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04461565676142822</v>
+        <v>0.04461565676142821</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03465368344084613</v>
+        <v>0.03560139846208782</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0560609760152196</v>
+        <v>0.05781501123399051</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>106</v>
@@ -8599,19 +8599,19 @@
         <v>77429</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>63222</v>
+        <v>64900</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95082</v>
+        <v>95576</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03657945640324631</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02986793688682663</v>
+        <v>0.03066047282106327</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04491923971650475</v>
+        <v>0.0451526088243983</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>12814</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6758</v>
+        <v>6919</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21628</v>
+        <v>21536</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01223818845249041</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006454647029351544</v>
+        <v>0.006608346133680857</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02065596636393999</v>
+        <v>0.02056850768559034</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -8649,19 +8649,19 @@
         <v>7086</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3552</v>
+        <v>3639</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12037</v>
+        <v>12578</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.00662405236162407</v>
+        <v>0.006624052361624069</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003321027826858319</v>
+        <v>0.003401838330588409</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01125293308441785</v>
+        <v>0.01175864553515996</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -8670,19 +8670,19 @@
         <v>19900</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12496</v>
+        <v>13132</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>30318</v>
+        <v>29845</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.00940111105939152</v>
+        <v>0.009401111059391516</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005903601676943574</v>
+        <v>0.006203692077099066</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01432301370342965</v>
+        <v>0.01409976711189884</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>450442</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>416399</v>
+        <v>419368</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>484909</v>
+        <v>482351</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5617220100156005</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5192693277132673</v>
+        <v>0.5229713027830052</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6047040731245202</v>
+        <v>0.6015139145990408</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>610</v>
@@ -8795,19 +8795,19 @@
         <v>472707</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>444871</v>
+        <v>446577</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>499991</v>
+        <v>498098</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5819659213336635</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5476962880810295</v>
+        <v>0.5497958545642683</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6155555702142708</v>
+        <v>0.6132249739125185</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>976</v>
@@ -8816,19 +8816,19 @@
         <v>923149</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>882489</v>
+        <v>879414</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>963163</v>
+        <v>964376</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5719089532509271</v>
+        <v>0.5719089532509272</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5467194927335399</v>
+        <v>0.5448143415493305</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5966984212040974</v>
+        <v>0.597450078930319</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>262933</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>232407</v>
+        <v>234344</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>293112</v>
+        <v>295233</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3278899374137222</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.289822541253404</v>
+        <v>0.2922380277995202</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3655240910562834</v>
+        <v>0.368169666130041</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>325</v>
@@ -8866,19 +8866,19 @@
         <v>245616</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>222238</v>
+        <v>222647</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>269589</v>
+        <v>268748</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3023864593186813</v>
+        <v>0.3023864593186814</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2736054443917765</v>
+        <v>0.2741087544485452</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3318997371122109</v>
+        <v>0.3308646753361791</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>554</v>
@@ -8887,19 +8887,19 @@
         <v>508549</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>470252</v>
+        <v>467209</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>547966</v>
+        <v>549764</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3150563263799806</v>
+        <v>0.3150563263799807</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2913300186907906</v>
+        <v>0.2894448552827633</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3394756585339578</v>
+        <v>0.3405898158167024</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>62720</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47834</v>
+        <v>45736</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>81416</v>
+        <v>79430</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07821439493578367</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05965078837826859</v>
+        <v>0.05703505086314955</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1015299912613227</v>
+        <v>0.09905254774300791</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>76</v>
@@ -8937,19 +8937,19 @@
         <v>66982</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>52125</v>
+        <v>52142</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>84660</v>
+        <v>86182</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0824638794763335</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06417326598216611</v>
+        <v>0.06419346296849285</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1042273690403239</v>
+        <v>0.1061020687116407</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>132</v>
@@ -8958,19 +8958,19 @@
         <v>129702</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>107763</v>
+        <v>107171</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>157455</v>
+        <v>154737</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.08035277902143977</v>
+        <v>0.08035277902143979</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06676157238024764</v>
+        <v>0.06639469662940754</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09754626133259474</v>
+        <v>0.09586276896905127</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>24199</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14902</v>
+        <v>15027</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40507</v>
+        <v>40880</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03017726181550749</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01858336224127878</v>
+        <v>0.01873975102249626</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.050513549836788</v>
+        <v>0.05097876125539451</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -9008,19 +9008,19 @@
         <v>20233</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13793</v>
+        <v>14014</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29863</v>
+        <v>28970</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02491002687238898</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01698158671430514</v>
+        <v>0.01725335489426576</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03676577098437047</v>
+        <v>0.03566640668484352</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>51</v>
@@ -9029,19 +9029,19 @@
         <v>44432</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>33801</v>
+        <v>32860</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>63672</v>
+        <v>63393</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.02752673531745861</v>
+        <v>0.02752673531745862</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02094025952952975</v>
+        <v>0.02035736099430073</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03944574869068472</v>
+        <v>0.03927329655684524</v>
       </c>
     </row>
     <row r="20">
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5709</v>
+        <v>5840</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001996395819386159</v>
@@ -9070,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.007119684185849077</v>
+        <v>0.007282282521793583</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -9079,19 +9079,19 @@
         <v>6720</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3019</v>
+        <v>2952</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17047</v>
+        <v>15219</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008273712998932698</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003716813446098151</v>
+        <v>0.00363386318178708</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02098683045320991</v>
+        <v>0.01873646714962486</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -9100,19 +9100,19 @@
         <v>8321</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3973</v>
+        <v>3859</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18875</v>
+        <v>19559</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.005155206030193788</v>
+        <v>0.005155206030193789</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002461161001507119</v>
+        <v>0.002390867853416885</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01169342194662937</v>
+        <v>0.01211699562079527</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>590887</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>560831</v>
+        <v>558424</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>626004</v>
+        <v>625781</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5980496426320789</v>
+        <v>0.598049642632079</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5676292528462729</v>
+        <v>0.5651935910897777</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6335921789080211</v>
+        <v>0.6333666546279793</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>918</v>
@@ -9225,19 +9225,19 @@
         <v>668052</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>637851</v>
+        <v>638645</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>695605</v>
+        <v>698289</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5995157180990865</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5724130501082639</v>
+        <v>0.5731261480909524</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6242426458472118</v>
+        <v>0.626650502891577</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1482</v>
@@ -9246,19 +9246,19 @@
         <v>1258939</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1217307</v>
+        <v>1219038</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1304271</v>
+        <v>1304287</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5988267170068516</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5790242784354381</v>
+        <v>0.5798478261255687</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.620389330953249</v>
+        <v>0.6203970798338916</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>282201</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>251586</v>
+        <v>253904</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>309828</v>
+        <v>311357</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2856218994397313</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2546360136499692</v>
+        <v>0.2569814591308712</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3135842216832688</v>
+        <v>0.3151313354376816</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>441</v>
@@ -9296,19 +9296,19 @@
         <v>312106</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>288231</v>
+        <v>284771</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>342473</v>
+        <v>339479</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2800867642350302</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.258660822430962</v>
+        <v>0.255556079460482</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3073385274843112</v>
+        <v>0.304651522872715</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>752</v>
@@ -9317,19 +9317,19 @@
         <v>594307</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>555908</v>
+        <v>555193</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>634288</v>
+        <v>633129</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2826880724811137</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.264423259529299</v>
+        <v>0.2640831424859207</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3017053327697198</v>
+        <v>0.3011540041559719</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>66197</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>51275</v>
+        <v>53143</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>82406</v>
+        <v>83684</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.06699932839859497</v>
+        <v>0.06699932839859496</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05189624484762401</v>
+        <v>0.05378701092994073</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08340516667802161</v>
+        <v>0.08469836975445531</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>106</v>
@@ -9367,19 +9367,19 @@
         <v>72346</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>59171</v>
+        <v>60044</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>88056</v>
+        <v>86331</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06492401192941456</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05310019359396335</v>
+        <v>0.05388362277424947</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07902248425798018</v>
+        <v>0.07747379018742553</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>179</v>
@@ -9388,19 +9388,19 @@
         <v>138543</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>119390</v>
+        <v>119266</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>159294</v>
+        <v>160056</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.06589933369570616</v>
+        <v>0.06589933369570615</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05678915505469281</v>
+        <v>0.05672996896413172</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07576965008626488</v>
+        <v>0.07613232546998218</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>37601</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27348</v>
+        <v>27561</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>51260</v>
+        <v>51142</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03805636986265341</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02767983341729634</v>
+        <v>0.02789521195851327</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05188138207250192</v>
+        <v>0.05176227352029076</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>68</v>
@@ -9438,19 +9438,19 @@
         <v>45988</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>35160</v>
+        <v>35928</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>58380</v>
+        <v>60012</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0412703298288264</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03155302796020388</v>
+        <v>0.03224196654024137</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05239035901422662</v>
+        <v>0.05385486820522059</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>111</v>
@@ -9459,19 +9459,19 @@
         <v>83589</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>68311</v>
+        <v>68585</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>99525</v>
+        <v>101017</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03975988785163909</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0324929188336482</v>
+        <v>0.03262303444743356</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04734026244654365</v>
+        <v>0.04804996131607168</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>11138</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5921</v>
+        <v>6094</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19488</v>
+        <v>19200</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01127275966694136</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005993206992403601</v>
+        <v>0.006167912447944309</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01972417781439011</v>
+        <v>0.01943252335231774</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -9509,19 +9509,19 @@
         <v>15827</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10128</v>
+        <v>10336</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23715</v>
+        <v>22542</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01420317590764228</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00908935355247628</v>
+        <v>0.009275356859866095</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0212819775161181</v>
+        <v>0.02022969147732017</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>36</v>
@@ -9530,19 +9530,19 @@
         <v>26965</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>18894</v>
+        <v>18600</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>36784</v>
+        <v>36949</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01282598896468958</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008987245984756745</v>
+        <v>0.00884720026785525</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01749672928759224</v>
+        <v>0.01757529191765892</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>2017906</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1941269</v>
+        <v>1955428</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2076950</v>
+        <v>2079361</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.5722399624385611</v>
+        <v>0.5722399624385612</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5505072612890246</v>
+        <v>0.5545224840838444</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5889839025650943</v>
+        <v>0.5896673779713665</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2929</v>
@@ -9655,19 +9655,19 @@
         <v>2118726</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2062204</v>
+        <v>2064097</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2167771</v>
+        <v>2171443</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5685116013390993</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5533452427988279</v>
+        <v>0.5538532134481091</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5816719215110112</v>
+        <v>0.5826570944721946</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4741</v>
@@ -9676,19 +9676,19 @@
         <v>4136631</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4047359</v>
+        <v>4050996</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4211282</v>
+        <v>4219152</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.5703242588103047</v>
+        <v>0.5703242588103048</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5580160534254075</v>
+        <v>0.5585175406912173</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5806164142207945</v>
+        <v>0.5817015113375975</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>1105677</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1050237</v>
+        <v>1048088</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1169140</v>
+        <v>1160875</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3135490673898566</v>
+        <v>0.3135490673898567</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2978273059563996</v>
+        <v>0.2972180878823281</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3315458858519612</v>
+        <v>0.3292023475235905</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1740</v>
@@ -9726,19 +9726,19 @@
         <v>1155452</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1105196</v>
+        <v>1108759</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1205386</v>
+        <v>1210874</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3100391944277632</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2965542036256655</v>
+        <v>0.2975101386728203</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3234378588118185</v>
+        <v>0.32491035768825</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2865</v>
@@ -9747,19 +9747,19 @@
         <v>2261129</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2186573</v>
+        <v>2181427</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2339450</v>
+        <v>2341932</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3117456271680465</v>
+        <v>0.3117456271680464</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3014665038461292</v>
+        <v>0.3007570092184358</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3225439308512388</v>
+        <v>0.3228860920861221</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>254859</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>224378</v>
+        <v>224417</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>288937</v>
+        <v>286779</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.07227323378325355</v>
+        <v>0.07227323378325357</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06362926556943962</v>
+        <v>0.06364038794166553</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08193705941172692</v>
+        <v>0.08132510603860724</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>414</v>
@@ -9797,19 +9797,19 @@
         <v>278014</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>252041</v>
+        <v>250465</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>309435</v>
+        <v>309664</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07459857951525496</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06762938943469042</v>
+        <v>0.06720669194892316</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08302981224756385</v>
+        <v>0.08309137679137232</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>685</v>
@@ -9818,19 +9818,19 @@
         <v>532873</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>494469</v>
+        <v>492365</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>578113</v>
+        <v>574231</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.07346804113611134</v>
+        <v>0.07346804113611136</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06817324421258303</v>
+        <v>0.06788324721200498</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07970540790466567</v>
+        <v>0.07917019713979657</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>113417</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>92701</v>
+        <v>92322</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>138209</v>
+        <v>139082</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.03216283989596692</v>
+        <v>0.03216283989596693</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02628837061366001</v>
+        <v>0.02618069559579439</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0391933438438565</v>
+        <v>0.03944095152810535</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>214</v>
@@ -9868,19 +9868,19 @@
         <v>138203</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>118414</v>
+        <v>119885</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>156582</v>
+        <v>157795</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.03708368297194264</v>
+        <v>0.03708368297194263</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03177361938871344</v>
+        <v>0.03216828905543791</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04201508942009854</v>
+        <v>0.0423407643783202</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>337</v>
@@ -9889,19 +9889,19 @@
         <v>251620</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>225285</v>
+        <v>224284</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>279487</v>
+        <v>283351</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.034691263694855</v>
+        <v>0.03469126369485499</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0310604729332172</v>
+        <v>0.03092241116927556</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03853332703308086</v>
+        <v>0.03906613366321748</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>34469</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24729</v>
+        <v>24977</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>48141</v>
+        <v>48568</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.009774896492361696</v>
+        <v>0.009774896492361698</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007012708830080023</v>
+        <v>0.007083025851064908</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01365181738646469</v>
+        <v>0.01377295496543266</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>54</v>
@@ -9939,19 +9939,19 @@
         <v>36399</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>27508</v>
+        <v>26201</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>47684</v>
+        <v>48753</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.009766941745939723</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.007381067520568322</v>
+        <v>0.007030449181678022</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0127947955273515</v>
+        <v>0.01308184251565436</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>93</v>
@@ -9960,19 +9960,19 @@
         <v>70869</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>56711</v>
+        <v>55712</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>87945</v>
+        <v>88100</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.009770809190682513</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.007818846424909666</v>
+        <v>0.007681151861346556</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01212510769335688</v>
+        <v>0.01214650051344742</v>
       </c>
     </row>
     <row r="33">
